--- a/WMM_All_configurations/MCBXFA_02_Inner_Iron_600_20220510-2/Summary_MM_MCBXFA_02_Inner_Iron_600_20220510-2.xlsx
+++ b/WMM_All_configurations/MCBXFA_02_Inner_Iron_600_20220510-2/Summary_MM_MCBXFA_02_Inner_Iron_600_20220510-2.xlsx
@@ -577,25 +577,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.003498743425145649</v>
+        <v>0.003498743425144894</v>
       </c>
       <c r="C4">
-        <v>-0.01112751168652351</v>
+        <v>-0.0111275116865252</v>
       </c>
       <c r="D4">
-        <v>-0.02291373333228382</v>
+        <v>-0.02291373333228381</v>
       </c>
       <c r="E4">
-        <v>-0.02291373333228382</v>
+        <v>-0.02291373333228381</v>
       </c>
       <c r="F4">
-        <v>-0.02291373333228382</v>
+        <v>-0.02291373333228381</v>
       </c>
       <c r="G4">
-        <v>-0.01112751168652351</v>
+        <v>-0.0111275116865252</v>
       </c>
       <c r="H4">
-        <v>0.003498743425145649</v>
+        <v>0.003498743425144894</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -603,25 +603,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.005067156521682388</v>
+        <v>0.005067156521683172</v>
       </c>
       <c r="C5">
-        <v>0.01750763290552022</v>
+        <v>0.01750763290551995</v>
       </c>
       <c r="D5">
-        <v>-0.02970934811264242</v>
+        <v>-0.02970934811264255</v>
       </c>
       <c r="E5">
-        <v>-0.02970934811264242</v>
+        <v>-0.02970934811264255</v>
       </c>
       <c r="F5">
-        <v>-0.02970934811264242</v>
+        <v>-0.02970934811264255</v>
       </c>
       <c r="G5">
-        <v>0.01750763290552022</v>
+        <v>0.01750763290551995</v>
       </c>
       <c r="H5">
-        <v>0.005067156521682388</v>
+        <v>0.005067156521683172</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -686,25 +686,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>93.25278011599724</v>
+        <v>93.2527801159972</v>
       </c>
       <c r="C9">
-        <v>27.88102351469039</v>
+        <v>27.8810235146904</v>
       </c>
       <c r="D9">
-        <v>1.520601844193056</v>
+        <v>1.520601844193057</v>
       </c>
       <c r="E9">
-        <v>1.520601844193056</v>
+        <v>1.520601844193057</v>
       </c>
       <c r="F9">
-        <v>1.520601844193056</v>
+        <v>1.520601844193057</v>
       </c>
       <c r="G9">
-        <v>27.88102351469039</v>
+        <v>27.8810235146904</v>
       </c>
       <c r="H9">
-        <v>93.25278011599724</v>
+        <v>93.2527801159972</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -715,7 +715,7 @@
         <v>-2328.863252641633</v>
       </c>
       <c r="C10">
-        <v>-357.4868610425184</v>
+        <v>-357.4868610425183</v>
       </c>
       <c r="D10">
         <v>-10.40025407585737</v>
@@ -727,7 +727,7 @@
         <v>-10.40025407585737</v>
       </c>
       <c r="G10">
-        <v>-357.4868610425184</v>
+        <v>-357.4868610425183</v>
       </c>
       <c r="H10">
         <v>-2328.863252641633</v>
@@ -738,25 +738,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>-10.66840429447482</v>
+        <v>-10.66840429447477</v>
       </c>
       <c r="C11">
-        <v>-1.655864010895111</v>
+        <v>-1.655864010895101</v>
       </c>
       <c r="D11">
-        <v>0.8312050572165446</v>
+        <v>0.8312050572165448</v>
       </c>
       <c r="E11">
-        <v>0.8312050572165446</v>
+        <v>0.8312050572165448</v>
       </c>
       <c r="F11">
-        <v>0.8312050572165446</v>
+        <v>0.8312050572165448</v>
       </c>
       <c r="G11">
-        <v>-1.655864010895111</v>
+        <v>-1.655864010895101</v>
       </c>
       <c r="H11">
-        <v>-10.66840429447482</v>
+        <v>-10.66840429447477</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -764,25 +764,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-212.5536239521624</v>
+        <v>-212.5536239521625</v>
       </c>
       <c r="C12">
         <v>-141.3531722747022</v>
       </c>
       <c r="D12">
-        <v>-8.380174487851768</v>
+        <v>-8.380174487851772</v>
       </c>
       <c r="E12">
-        <v>-8.380174487851768</v>
+        <v>-8.380174487851772</v>
       </c>
       <c r="F12">
-        <v>-8.380174487851768</v>
+        <v>-8.380174487851772</v>
       </c>
       <c r="G12">
         <v>-141.3531722747022</v>
       </c>
       <c r="H12">
-        <v>-212.5536239521624</v>
+        <v>-212.5536239521625</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -790,25 +790,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.1392393816123636</v>
+        <v>0.1392393816123776</v>
       </c>
       <c r="C13">
-        <v>1.185269425674605</v>
+        <v>1.185269425674615</v>
       </c>
       <c r="D13">
-        <v>0.03729585551908479</v>
+        <v>0.03729585551908485</v>
       </c>
       <c r="E13">
-        <v>0.03729585551908479</v>
+        <v>0.03729585551908485</v>
       </c>
       <c r="F13">
-        <v>0.03729585551908479</v>
+        <v>0.03729585551908485</v>
       </c>
       <c r="G13">
-        <v>1.185269425674605</v>
+        <v>1.185269425674615</v>
       </c>
       <c r="H13">
-        <v>0.1392393816123636</v>
+        <v>0.1392393816123776</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -816,25 +816,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.592984560429261</v>
+        <v>6.592984560429253</v>
       </c>
       <c r="C14">
-        <v>-65.99400988621298</v>
+        <v>-65.99400988621301</v>
       </c>
       <c r="D14">
-        <v>-0.7175660235358906</v>
+        <v>-0.7175660235358907</v>
       </c>
       <c r="E14">
-        <v>-0.7175660235358906</v>
+        <v>-0.7175660235358907</v>
       </c>
       <c r="F14">
-        <v>-0.7175660235358906</v>
+        <v>-0.7175660235358907</v>
       </c>
       <c r="G14">
-        <v>-65.99400988621298</v>
+        <v>-65.99400988621301</v>
       </c>
       <c r="H14">
-        <v>6.592984560429261</v>
+        <v>6.592984560429253</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -842,25 +842,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>-2.576771025362943</v>
+        <v>-2.576771025362925</v>
       </c>
       <c r="C15">
-        <v>0.1413665631033112</v>
+        <v>0.1413665631033195</v>
       </c>
       <c r="D15">
-        <v>-0.06508710207152611</v>
+        <v>-0.06508710207152604</v>
       </c>
       <c r="E15">
-        <v>-0.06508710207152611</v>
+        <v>-0.06508710207152604</v>
       </c>
       <c r="F15">
-        <v>-0.06508710207152611</v>
+        <v>-0.06508710207152604</v>
       </c>
       <c r="G15">
-        <v>0.1413665631033112</v>
+        <v>0.1413665631033195</v>
       </c>
       <c r="H15">
-        <v>-2.576771025362943</v>
+        <v>-2.576771025362925</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -868,7 +868,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.515222818233458</v>
+        <v>8.515222818233516</v>
       </c>
       <c r="C16">
         <v>-21.12246848920714</v>
@@ -886,7 +886,7 @@
         <v>-21.12246848920714</v>
       </c>
       <c r="H16">
-        <v>8.515222818233458</v>
+        <v>8.515222818233516</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -894,25 +894,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1765370143265984</v>
+        <v>0.1765370143266974</v>
       </c>
       <c r="C17">
-        <v>-0.2306445656995745</v>
+        <v>-0.2306445656995786</v>
       </c>
       <c r="D17">
-        <v>-0.3688488178457793</v>
+        <v>-0.3688488178457792</v>
       </c>
       <c r="E17">
-        <v>-0.3688488178457793</v>
+        <v>-0.3688488178457792</v>
       </c>
       <c r="F17">
-        <v>-0.3688488178457793</v>
+        <v>-0.3688488178457792</v>
       </c>
       <c r="G17">
-        <v>-0.2306445656995745</v>
+        <v>-0.2306445656995786</v>
       </c>
       <c r="H17">
-        <v>0.1765370143265984</v>
+        <v>0.1765370143266974</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -920,25 +920,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.286019868431772</v>
+        <v>8.286019868432088</v>
       </c>
       <c r="C18">
-        <v>-5.048412082014273</v>
+        <v>-5.048412082014282</v>
       </c>
       <c r="D18">
-        <v>2.79181280931899</v>
+        <v>2.791812809318989</v>
       </c>
       <c r="E18">
-        <v>2.79181280931899</v>
+        <v>2.791812809318989</v>
       </c>
       <c r="F18">
-        <v>2.79181280931899</v>
+        <v>2.791812809318989</v>
       </c>
       <c r="G18">
-        <v>-5.048412082014273</v>
+        <v>-5.048412082014282</v>
       </c>
       <c r="H18">
-        <v>8.286019868431772</v>
+        <v>8.286019868432088</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -946,25 +946,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.900617177748621</v>
+        <v>3.900617177748019</v>
       </c>
       <c r="C19">
-        <v>-0.678501156729303</v>
+        <v>-0.6785011567294146</v>
       </c>
       <c r="D19">
-        <v>0.2857434155902019</v>
+        <v>0.2857434155902008</v>
       </c>
       <c r="E19">
-        <v>0.2857434155902019</v>
+        <v>0.2857434155902008</v>
       </c>
       <c r="F19">
-        <v>0.2857434155902019</v>
+        <v>0.2857434155902008</v>
       </c>
       <c r="G19">
-        <v>-0.678501156729303</v>
+        <v>-0.6785011567294146</v>
       </c>
       <c r="H19">
-        <v>3.900617177748621</v>
+        <v>3.900617177748019</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -972,25 +972,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>-8.207465524077074</v>
+        <v>-8.207465524078556</v>
       </c>
       <c r="C20">
-        <v>-1.359044762108484</v>
+        <v>-1.359044762108201</v>
       </c>
       <c r="D20">
-        <v>-1.556032338575846</v>
+        <v>-1.556032338575843</v>
       </c>
       <c r="E20">
-        <v>-1.556032338575846</v>
+        <v>-1.556032338575843</v>
       </c>
       <c r="F20">
-        <v>-1.556032338575846</v>
+        <v>-1.556032338575843</v>
       </c>
       <c r="G20">
-        <v>-1.359044762108484</v>
+        <v>-1.359044762108201</v>
       </c>
       <c r="H20">
-        <v>-8.207465524077074</v>
+        <v>-8.207465524078556</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -998,25 +998,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.005127961242051837</v>
+        <v>-0.005127961241992274</v>
       </c>
       <c r="C21">
-        <v>0.002658772542307702</v>
+        <v>0.002658772542389748</v>
       </c>
       <c r="D21">
-        <v>-0.07246337697313605</v>
+        <v>-0.07246337697313572</v>
       </c>
       <c r="E21">
-        <v>-0.07246337697313605</v>
+        <v>-0.07246337697313572</v>
       </c>
       <c r="F21">
-        <v>-0.07246337697313605</v>
+        <v>-0.07246337697313572</v>
       </c>
       <c r="G21">
-        <v>0.002658772542307702</v>
+        <v>0.002658772542389748</v>
       </c>
       <c r="H21">
-        <v>-0.005127961242051837</v>
+        <v>-0.005127961241992274</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1024,25 +1024,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-2.926494805470427</v>
+        <v>-2.926494805470426</v>
       </c>
       <c r="C22">
-        <v>-0.3157451900606256</v>
+        <v>-0.3157451900605996</v>
       </c>
       <c r="D22">
-        <v>0.2088441934989191</v>
+        <v>0.2088441934989194</v>
       </c>
       <c r="E22">
-        <v>0.2088441934989191</v>
+        <v>0.2088441934989194</v>
       </c>
       <c r="F22">
-        <v>0.2088441934989191</v>
+        <v>0.2088441934989194</v>
       </c>
       <c r="G22">
-        <v>-0.3157451900606256</v>
+        <v>-0.3157451900605996</v>
       </c>
       <c r="H22">
-        <v>-2.926494805470427</v>
+        <v>-2.926494805470426</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1058,7 +1058,7 @@
         <v>2.473336205982557E-20</v>
       </c>
       <c r="C24">
-        <v>1.111307226797642E-19</v>
+        <v>1.463672932855431E-19</v>
       </c>
       <c r="D24">
         <v>4.228388472693468E-19</v>
@@ -1070,7 +1070,7 @@
         <v>4.228388472693468E-19</v>
       </c>
       <c r="G24">
-        <v>1.111307226797642E-19</v>
+        <v>1.463672932855431E-19</v>
       </c>
       <c r="H24">
         <v>2.473336205982557E-20</v>
@@ -1081,10 +1081,10 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>-283.409285414318</v>
+        <v>-283.4092854143179</v>
       </c>
       <c r="C25">
-        <v>-53.33102262842392</v>
+        <v>-53.33102262842394</v>
       </c>
       <c r="D25">
         <v>-2.03312251938965</v>
@@ -1096,10 +1096,10 @@
         <v>-2.03312251938965</v>
       </c>
       <c r="G25">
-        <v>-53.33102262842392</v>
+        <v>-53.33102262842394</v>
       </c>
       <c r="H25">
-        <v>-283.409285414318</v>
+        <v>-283.4092854143179</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1107,10 +1107,10 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>-41.28290525812326</v>
+        <v>-41.28290525812332</v>
       </c>
       <c r="C26">
-        <v>2.125875234222707</v>
+        <v>2.12587523422274</v>
       </c>
       <c r="D26">
         <v>0.3277639911945505</v>
@@ -1122,10 +1122,10 @@
         <v>0.3277639911945505</v>
       </c>
       <c r="G26">
-        <v>2.125875234222707</v>
+        <v>2.12587523422274</v>
       </c>
       <c r="H26">
-        <v>-41.28290525812326</v>
+        <v>-41.28290525812332</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1133,25 +1133,25 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>-32.3739773344242</v>
+        <v>-32.37397733442427</v>
       </c>
       <c r="C27">
-        <v>-15.61366017789557</v>
+        <v>-15.61366017789558</v>
       </c>
       <c r="D27">
-        <v>-0.4580313156655656</v>
+        <v>-0.4580313156655654</v>
       </c>
       <c r="E27">
-        <v>-0.4580313156655656</v>
+        <v>-0.4580313156655654</v>
       </c>
       <c r="F27">
-        <v>-0.4580313156655656</v>
+        <v>-0.4580313156655654</v>
       </c>
       <c r="G27">
-        <v>-15.61366017789557</v>
+        <v>-15.61366017789558</v>
       </c>
       <c r="H27">
-        <v>-32.3739773344242</v>
+        <v>-32.37397733442427</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1159,25 +1159,25 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>16.22637402981875</v>
+        <v>16.22637402981878</v>
       </c>
       <c r="C28">
-        <v>5.82101241387853</v>
+        <v>5.821012413878561</v>
       </c>
       <c r="D28">
-        <v>0.3616715869127164</v>
+        <v>0.3616715869127163</v>
       </c>
       <c r="E28">
-        <v>0.3616715869127164</v>
+        <v>0.3616715869127163</v>
       </c>
       <c r="F28">
-        <v>0.3616715869127164</v>
+        <v>0.3616715869127163</v>
       </c>
       <c r="G28">
-        <v>5.82101241387853</v>
+        <v>5.821012413878561</v>
       </c>
       <c r="H28">
-        <v>16.22637402981875</v>
+        <v>16.22637402981878</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1185,25 +1185,25 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>6.6824867005424</v>
+        <v>6.682486700542432</v>
       </c>
       <c r="C29">
-        <v>-9.444859799401931</v>
+        <v>-9.444859799401925</v>
       </c>
       <c r="D29">
-        <v>-0.03583362172027935</v>
+        <v>-0.03583362172027918</v>
       </c>
       <c r="E29">
-        <v>-0.03583362172027935</v>
+        <v>-0.03583362172027918</v>
       </c>
       <c r="F29">
-        <v>-0.03583362172027935</v>
+        <v>-0.03583362172027918</v>
       </c>
       <c r="G29">
-        <v>-9.444859799401931</v>
+        <v>-9.444859799401925</v>
       </c>
       <c r="H29">
-        <v>6.6824867005424</v>
+        <v>6.682486700542432</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1214,19 +1214,19 @@
         <v>10.53302771491394</v>
       </c>
       <c r="C30">
-        <v>2.448169221012203</v>
+        <v>2.448169221012227</v>
       </c>
       <c r="D30">
-        <v>-0.1410201454697728</v>
+        <v>-0.1410201454697725</v>
       </c>
       <c r="E30">
-        <v>-0.1410201454697728</v>
+        <v>-0.1410201454697725</v>
       </c>
       <c r="F30">
-        <v>-0.1410201454697728</v>
+        <v>-0.1410201454697725</v>
       </c>
       <c r="G30">
-        <v>2.448169221012203</v>
+        <v>2.448169221012227</v>
       </c>
       <c r="H30">
         <v>10.53302771491394</v>
@@ -1237,25 +1237,25 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>1.475186646287683</v>
+        <v>1.475186646287658</v>
       </c>
       <c r="C31">
-        <v>-3.481887695704486</v>
+        <v>-3.48188769570447</v>
       </c>
       <c r="D31">
-        <v>0.1690014833137071</v>
+        <v>0.1690014833137072</v>
       </c>
       <c r="E31">
-        <v>0.1690014833137071</v>
+        <v>0.1690014833137072</v>
       </c>
       <c r="F31">
-        <v>0.1690014833137071</v>
+        <v>0.1690014833137072</v>
       </c>
       <c r="G31">
-        <v>-3.481887695704486</v>
+        <v>-3.48188769570447</v>
       </c>
       <c r="H31">
-        <v>1.475186646287683</v>
+        <v>1.475186646287658</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1263,25 +1263,25 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>-1.134121107296943</v>
+        <v>-1.134121107296866</v>
       </c>
       <c r="C32">
-        <v>0.5269598302337956</v>
+        <v>0.5269598302337961</v>
       </c>
       <c r="D32">
-        <v>-0.02832881477126879</v>
+        <v>-0.02832881477126873</v>
       </c>
       <c r="E32">
-        <v>-0.02832881477126879</v>
+        <v>-0.02832881477126873</v>
       </c>
       <c r="F32">
-        <v>-0.02832881477126879</v>
+        <v>-0.02832881477126873</v>
       </c>
       <c r="G32">
-        <v>0.5269598302337956</v>
+        <v>0.5269598302337961</v>
       </c>
       <c r="H32">
-        <v>-1.134121107296943</v>
+        <v>-1.134121107296866</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1289,25 +1289,25 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>-1.041374308246626</v>
+        <v>-1.041374308246659</v>
       </c>
       <c r="C33">
-        <v>-1.06216265968404</v>
+        <v>-1.062162659684003</v>
       </c>
       <c r="D33">
-        <v>0.2819505630360691</v>
+        <v>0.2819505630360696</v>
       </c>
       <c r="E33">
-        <v>0.2819505630360691</v>
+        <v>0.2819505630360696</v>
       </c>
       <c r="F33">
-        <v>0.2819505630360691</v>
+        <v>0.2819505630360696</v>
       </c>
       <c r="G33">
-        <v>-1.06216265968404</v>
+        <v>-1.062162659684003</v>
       </c>
       <c r="H33">
-        <v>-1.041374308246626</v>
+        <v>-1.041374308246659</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1315,25 +1315,25 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>-5.771836873633243</v>
+        <v>-5.771836873633313</v>
       </c>
       <c r="C34">
-        <v>-0.2561185820151014</v>
+        <v>-0.256118582015102</v>
       </c>
       <c r="D34">
-        <v>-0.04222992946729837</v>
+        <v>-0.04222992946729759</v>
       </c>
       <c r="E34">
-        <v>-0.04222992946729837</v>
+        <v>-0.04222992946729759</v>
       </c>
       <c r="F34">
-        <v>-0.04222992946729837</v>
+        <v>-0.04222992946729759</v>
       </c>
       <c r="G34">
-        <v>-0.2561185820151014</v>
+        <v>-0.256118582015102</v>
       </c>
       <c r="H34">
-        <v>-5.771836873633243</v>
+        <v>-5.771836873633313</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1341,10 +1341,10 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>-3.020474278756939</v>
+        <v>-3.020474278757193</v>
       </c>
       <c r="C35">
-        <v>-0.8508067516226776</v>
+        <v>-0.850806751622561</v>
       </c>
       <c r="D35">
         <v>-0.300121499585596</v>
@@ -1356,10 +1356,10 @@
         <v>-0.300121499585596</v>
       </c>
       <c r="G35">
-        <v>-0.8508067516226776</v>
+        <v>-0.850806751622561</v>
       </c>
       <c r="H35">
-        <v>-3.020474278756939</v>
+        <v>-3.020474278757193</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1367,25 +1367,25 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>8.093339219081003</v>
+        <v>8.093339219079922</v>
       </c>
       <c r="C36">
-        <v>2.633116555126522</v>
+        <v>2.633116555126503</v>
       </c>
       <c r="D36">
-        <v>-0.1114999873673271</v>
+        <v>-0.1114999873673291</v>
       </c>
       <c r="E36">
-        <v>-0.1114999873673271</v>
+        <v>-0.1114999873673291</v>
       </c>
       <c r="F36">
-        <v>-0.1114999873673271</v>
+        <v>-0.1114999873673291</v>
       </c>
       <c r="G36">
-        <v>2.633116555126522</v>
+        <v>2.633116555126503</v>
       </c>
       <c r="H36">
-        <v>8.093339219081003</v>
+        <v>8.093339219079922</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1393,25 +1393,25 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>0.6088490183826436</v>
+        <v>0.608849018382451</v>
       </c>
       <c r="C37">
-        <v>0.4359073758289703</v>
+        <v>0.4359073758289509</v>
       </c>
       <c r="D37">
-        <v>0.05040839893650177</v>
+        <v>0.05040839893650118</v>
       </c>
       <c r="E37">
-        <v>0.05040839893650177</v>
+        <v>0.05040839893650118</v>
       </c>
       <c r="F37">
-        <v>0.05040839893650177</v>
+        <v>0.05040839893650118</v>
       </c>
       <c r="G37">
-        <v>0.4359073758289703</v>
+        <v>0.4359073758289509</v>
       </c>
       <c r="H37">
-        <v>0.6088490183826436</v>
+        <v>0.608849018382451</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1419,25 +1419,25 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>1.150759812771456</v>
+        <v>1.150759812771298</v>
       </c>
       <c r="C38">
-        <v>0.4025998434934219</v>
+        <v>0.4025998434934088</v>
       </c>
       <c r="D38">
-        <v>0.0298186235459313</v>
+        <v>0.02981862354593268</v>
       </c>
       <c r="E38">
-        <v>0.0298186235459313</v>
+        <v>0.02981862354593268</v>
       </c>
       <c r="F38">
-        <v>0.0298186235459313</v>
+        <v>0.02981862354593268</v>
       </c>
       <c r="G38">
-        <v>0.4025998434934219</v>
+        <v>0.4025998434934088</v>
       </c>
       <c r="H38">
-        <v>1.150759812771456</v>
+        <v>1.150759812771298</v>
       </c>
     </row>
     <row r="39" spans="1:8">
